--- a/public/files/datos_ca.xlsx
+++ b/public/files/datos_ca.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desarrollos\Emcali\carga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\emcaliFinanciero_back\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,13 +582,14 @@
   <dimension ref="A1:AA449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="27" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
